--- a/analyzer.xlsx
+++ b/analyzer.xlsx
@@ -5,24 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Program\Compilers 2024\SLRAnalyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dload\SLRAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DB8230-B29E-43FF-BDDA-859F75612E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4164D7D8-5759-4C98-BE26-F5A5C6D55DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-111" yWindow="-111" windowWidth="23853" windowHeight="12788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="1260" windowWidth="19200" windowHeight="13130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="222">
   <si>
     <t>状态</t>
   </si>
@@ -60,9 +71,6 @@
     <t>else</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -375,15 +383,9 @@
     <t>s82</t>
   </si>
   <si>
-    <t>s83</t>
-  </si>
-  <si>
     <t>s86</t>
   </si>
   <si>
-    <t>s87</t>
-  </si>
-  <si>
     <t>s88</t>
   </si>
   <si>
@@ -570,13 +572,7 @@
     <t>r25</t>
   </si>
   <si>
-    <t>s144</t>
-  </si>
-  <si>
     <t>r66</t>
-  </si>
-  <si>
-    <t>s147</t>
   </si>
   <si>
     <t>r67</t>
@@ -687,6 +683,58 @@
   </si>
   <si>
     <t>r64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s145</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s146</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s143</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s84</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r67</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r69</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r39</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r37</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1081,12 +1129,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N134" sqref="N134"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA82" sqref="AA82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -1161,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1182,133 +1230,133 @@
         <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -1316,79 +1364,79 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI3" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK3" s="2">
         <v>1</v>
@@ -1469,7 +1517,7 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
@@ -1496,79 +1544,79 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI5" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK5" s="2">
         <v>21</v>
@@ -1615,82 +1663,82 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI6" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK6" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL6" s="2">
         <v>2</v>
@@ -1734,82 +1782,82 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI7" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK7" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL7" s="2">
         <v>2</v>
@@ -1853,82 +1901,82 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI8" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK8" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL8" s="2">
         <v>2</v>
@@ -1978,7 +2026,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2030,7 +2078,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2089,7 +2137,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2148,7 +2196,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2205,45 +2253,45 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -2263,7 +2311,7 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
@@ -2297,7 +2345,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2356,7 +2404,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2412,7 +2460,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2469,7 +2517,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2478,52 +2526,54 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
@@ -2556,7 +2606,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2568,21 +2618,21 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W18" s="2"/>
       <c r="AG18" s="2"/>
@@ -2632,7 +2682,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -2690,7 +2740,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -2749,7 +2799,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -2794,7 +2844,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2804,11 +2854,11 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -2818,35 +2868,35 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -2876,79 +2926,79 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH23" s="2" t="s">
+      <c r="AI23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI23" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK23" s="2">
         <v>31</v>
@@ -2985,7 +3035,7 @@
       <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
       <c r="AY23" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2"/>
@@ -2995,45 +3045,45 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -3053,7 +3103,7 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
@@ -3078,77 +3128,77 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH25" s="2" t="s">
+      <c r="AI25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI25" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK25" s="2">
         <v>32</v>
@@ -3204,7 +3254,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -3213,36 +3263,36 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH26" s="2" t="s">
+      <c r="AI26" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
@@ -3281,7 +3331,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3290,36 +3340,36 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH27" s="2" t="s">
+      <c r="AI27" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI27" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
@@ -3354,7 +3404,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -3429,7 +3479,7 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -3469,7 +3519,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3479,11 +3529,11 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -3493,35 +3543,35 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
@@ -3567,13 +3617,13 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2">
-        <v>146</v>
+      <c r="R31" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -3587,7 +3637,7 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
@@ -3617,7 +3667,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3683,7 +3733,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3692,36 +3742,36 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH33" s="2" t="s">
+      <c r="AI33" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI33" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
@@ -3758,7 +3808,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -3812,7 +3862,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3821,7 +3871,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="L35" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -3833,35 +3883,35 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y35" s="2" t="s">
+      <c r="Z35" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z35" s="2" t="s">
+      <c r="AA35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA35" s="2" t="s">
+      <c r="AB35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB35" s="2" t="s">
+      <c r="AC35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC35" s="2" t="s">
+      <c r="AD35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD35" s="2" t="s">
+      <c r="AE35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE35" s="2" t="s">
+      <c r="AF35" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF35" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
@@ -3892,7 +3942,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3912,35 +3962,35 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y36" s="2" t="s">
+      <c r="Z36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z36" s="2" t="s">
+      <c r="AA36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA36" s="2" t="s">
+      <c r="AB36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB36" s="2" t="s">
+      <c r="AC36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC36" s="2" t="s">
+      <c r="AD36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD36" s="2" t="s">
+      <c r="AE36" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE36" s="2" t="s">
+      <c r="AF36" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF36" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
@@ -3978,7 +4028,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -3987,36 +4037,36 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH37" s="2" t="s">
+      <c r="AI37" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI37" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
@@ -4055,7 +4105,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -4064,36 +4114,36 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH38" s="2" t="s">
+      <c r="AI38" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI38" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
@@ -4132,7 +4182,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -4141,36 +4191,36 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH39" s="2" t="s">
+      <c r="AI39" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI39" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
@@ -4202,7 +4252,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -4212,11 +4262,11 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -4226,35 +4276,35 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
@@ -4284,7 +4334,7 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -4294,11 +4344,11 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -4308,35 +4358,35 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
@@ -4366,7 +4416,7 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4376,11 +4426,11 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -4390,35 +4440,35 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
@@ -4448,7 +4498,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4458,11 +4508,11 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -4472,35 +4522,35 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
@@ -4530,68 +4580,72 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
+      <c r="AJ44" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
@@ -4626,7 +4680,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -4686,7 +4740,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -4698,35 +4752,35 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y46" s="2" t="s">
+      <c r="Z46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z46" s="2" t="s">
+      <c r="AA46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA46" s="2" t="s">
+      <c r="AB46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB46" s="2" t="s">
+      <c r="AC46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC46" s="2" t="s">
+      <c r="AD46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD46" s="2" t="s">
+      <c r="AE46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE46" s="2" t="s">
+      <c r="AF46" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF46" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
@@ -4764,7 +4818,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -4823,7 +4877,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -4891,7 +4945,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -4950,7 +5004,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -4993,7 +5047,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -5013,35 +5067,35 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y51" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y51" s="2" t="s">
+      <c r="Z51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z51" s="2" t="s">
+      <c r="AA51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA51" s="2" t="s">
+      <c r="AB51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB51" s="2" t="s">
+      <c r="AC51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC51" s="2" t="s">
+      <c r="AD51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD51" s="2" t="s">
+      <c r="AE51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE51" s="2" t="s">
+      <c r="AF51" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF51" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
@@ -5072,47 +5126,47 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
@@ -5132,7 +5186,7 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
@@ -5166,7 +5220,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -5175,36 +5229,36 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH53" s="2" t="s">
+      <c r="AI53" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI53" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ53" s="2"/>
       <c r="AK53" s="2"/>
@@ -5243,7 +5297,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -5252,40 +5306,40 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH54" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH54" s="2" t="s">
+      <c r="AI54" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI54" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ54" s="2"/>
       <c r="AK54" s="2"/>
@@ -5324,7 +5378,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -5333,38 +5387,38 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH55" s="2" t="s">
+      <c r="AI55" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI55" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ55" s="2"/>
       <c r="AK55" s="2"/>
@@ -5403,7 +5457,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -5412,38 +5466,38 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH56" s="2" t="s">
+      <c r="AI56" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI56" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ56" s="2"/>
       <c r="AK56" s="2"/>
@@ -5482,7 +5536,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -5491,38 +5545,38 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH57" s="2" t="s">
+      <c r="AI57" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI57" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ57" s="2"/>
       <c r="AK57" s="2"/>
@@ -5561,7 +5615,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -5570,38 +5624,38 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V58" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
+      </c>
+      <c r="V58" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH58" s="2" t="s">
+      <c r="AI58" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI58" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ58" s="2"/>
       <c r="AK58" s="2"/>
@@ -5640,7 +5694,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -5649,38 +5703,38 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH59" s="2" t="s">
+      <c r="AI59" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI59" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ59" s="2"/>
       <c r="AK59" s="2"/>
@@ -5718,33 +5772,49 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="K60" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
+      <c r="R60" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
+      <c r="U60" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="V60" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
+      <c r="Y60" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
+      <c r="AD60" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="2"/>
-      <c r="AI60" s="2"/>
+      <c r="AG60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI60" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="AJ60" s="2"/>
       <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
@@ -5753,14 +5823,18 @@
       <c r="AO60" s="2"/>
       <c r="AP60" s="2"/>
       <c r="AQ60" s="2"/>
-      <c r="AR60" s="2"/>
+      <c r="AR60" s="2">
+        <v>40</v>
+      </c>
       <c r="AS60" s="2"/>
       <c r="AT60" s="2"/>
       <c r="AU60" s="2"/>
       <c r="AV60" s="2"/>
       <c r="AW60" s="2"/>
       <c r="AX60" s="2"/>
-      <c r="AY60" s="2"/>
+      <c r="AY60" s="2">
+        <v>155</v>
+      </c>
       <c r="AZ60" s="2"/>
       <c r="BA60" s="2"/>
     </row>
@@ -5789,7 +5863,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
@@ -5857,7 +5931,7 @@
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
@@ -5917,7 +5991,7 @@
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
@@ -5956,7 +6030,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -5968,35 +6042,35 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y64" s="2" t="s">
+      <c r="Z64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z64" s="2" t="s">
+      <c r="AA64" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA64" s="2" t="s">
+      <c r="AB64" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB64" s="2" t="s">
+      <c r="AC64" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC64" s="2" t="s">
+      <c r="AD64" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD64" s="2" t="s">
+      <c r="AE64" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE64" s="2" t="s">
+      <c r="AF64" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF64" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
@@ -6027,7 +6101,7 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -6037,11 +6111,11 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -6051,35 +6125,35 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y65" s="2" t="s">
+      <c r="Z65" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z65" s="2" t="s">
+      <c r="AA65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA65" s="2" t="s">
+      <c r="AB65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB65" s="2" t="s">
+      <c r="AC65" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC65" s="2" t="s">
+      <c r="AD65" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD65" s="2" t="s">
+      <c r="AE65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE65" s="2" t="s">
+      <c r="AF65" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF65" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
@@ -6109,7 +6183,7 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -6119,11 +6193,11 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -6133,35 +6207,35 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y66" s="2" t="s">
+      <c r="Z66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z66" s="2" t="s">
+      <c r="AA66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA66" s="2" t="s">
+      <c r="AB66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB66" s="2" t="s">
+      <c r="AC66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC66" s="2" t="s">
+      <c r="AD66" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD66" s="2" t="s">
+      <c r="AE66" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE66" s="2" t="s">
+      <c r="AF66" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF66" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
@@ -6199,49 +6273,49 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
       <c r="AD67" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
       <c r="AG67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH67" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH67" s="2" t="s">
+      <c r="AI67" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI67" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AK67" s="2"/>
       <c r="AL67" s="2"/>
@@ -6250,7 +6324,9 @@
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
       <c r="AQ67" s="2"/>
-      <c r="AR67" s="2"/>
+      <c r="AR67" s="2">
+        <v>40</v>
+      </c>
       <c r="AS67" s="2"/>
       <c r="AT67" s="2"/>
       <c r="AU67" s="2"/>
@@ -6281,10 +6357,10 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -6292,36 +6368,36 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
       <c r="AD68" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
       <c r="AG68" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH68" s="2" t="s">
+      <c r="AI68" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI68" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="2"/>
@@ -6354,79 +6430,79 @@
         <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="Q69" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="R69" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
       <c r="AD69" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH69" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH69" s="2" t="s">
+      <c r="AI69" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI69" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ69" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK69" s="2">
         <v>96</v>
@@ -6482,7 +6558,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -6491,36 +6567,36 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
       <c r="AD70" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH70" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH70" s="2" t="s">
+      <c r="AI70" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI70" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ70" s="2"/>
       <c r="AK70" s="2"/>
@@ -6560,18 +6636,18 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P71" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="Q71" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
@@ -6623,7 +6699,7 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -6635,19 +6711,19 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
@@ -6690,7 +6766,7 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -6756,7 +6832,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -6765,38 +6841,38 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
       <c r="AD74" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
       <c r="AG74" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH74" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH74" s="2" t="s">
+      <c r="AI74" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI74" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ74" s="2"/>
       <c r="AK74" s="2"/>
@@ -6828,7 +6904,7 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -6848,35 +6924,35 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W75" s="2"/>
       <c r="X75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y75" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y75" s="2" t="s">
+      <c r="Z75" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z75" s="2" t="s">
+      <c r="AA75" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA75" s="2" t="s">
+      <c r="AB75" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB75" s="2" t="s">
+      <c r="AC75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC75" s="2" t="s">
+      <c r="AD75" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD75" s="2" t="s">
+      <c r="AE75" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE75" s="2" t="s">
+      <c r="AF75" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF75" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
@@ -6907,7 +6983,7 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -6917,11 +6993,11 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -6931,35 +7007,35 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W76" s="2"/>
-      <c r="X76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y76" s="2" t="s">
+      <c r="X76" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y76" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z76" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z76" s="2" t="s">
+      <c r="AA76" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA76" s="2" t="s">
+      <c r="AB76" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB76" s="2" t="s">
+      <c r="AC76" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC76" s="2" t="s">
+      <c r="AD76" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD76" s="2" t="s">
+      <c r="AE76" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE76" s="2" t="s">
+      <c r="AF76" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF76" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG76" s="2"/>
       <c r="AH76" s="2"/>
@@ -6990,7 +7066,7 @@
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -7000,11 +7076,11 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -7014,35 +7090,35 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="W77" s="2"/>
       <c r="X77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Z77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AA77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AB77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AC77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AD77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AE77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AF77" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AG77" s="2"/>
       <c r="AH77" s="2"/>
@@ -7079,7 +7155,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -7088,36 +7164,36 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
       <c r="AD78" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
       <c r="AG78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH78" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH78" s="2" t="s">
+      <c r="AI78" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI78" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ78" s="2"/>
       <c r="AK78" s="2"/>
@@ -7149,7 +7225,7 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -7159,11 +7235,11 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -7173,35 +7249,35 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="W79" s="2"/>
       <c r="X79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Z79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AA79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AC79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AE79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AF79" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
@@ -7232,7 +7308,7 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -7241,49 +7317,49 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
       <c r="Y80" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
       <c r="AD80" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
       <c r="AG80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH80" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH80" s="2" t="s">
+      <c r="AI80" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI80" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AK80" s="2"/>
       <c r="AL80" s="2"/>
@@ -7328,36 +7404,36 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
       <c r="AD81" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
       <c r="AG81" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH81" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH81" s="2" t="s">
+      <c r="AI81" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI81" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ81" s="2"/>
       <c r="AK81" s="2"/>
@@ -7389,7 +7465,7 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -7399,11 +7475,11 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -7413,35 +7489,35 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W82" s="2"/>
-      <c r="X82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z82" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA82" s="2" t="s">
+      <c r="X82" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y82" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z82" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA82" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB82" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB82" s="2" t="s">
+      <c r="AC82" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC82" s="2" t="s">
+      <c r="AD82" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD82" s="2" t="s">
+      <c r="AE82" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE82" s="2" t="s">
+      <c r="AF82" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF82" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG82" s="2"/>
       <c r="AH82" s="2"/>
@@ -7478,7 +7554,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -7487,36 +7563,36 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
       <c r="AD83" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
       <c r="AG83" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH83" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH83" s="2" t="s">
+      <c r="AI83" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI83" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ83" s="2"/>
       <c r="AK83" s="2"/>
@@ -7548,7 +7624,7 @@
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -7558,11 +7634,11 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -7572,35 +7648,35 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W84" s="2"/>
-      <c r="X84" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y84" s="2" t="s">
+      <c r="X84" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y84" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z84" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z84" s="2" t="s">
+      <c r="AA84" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA84" s="2" t="s">
+      <c r="AB84" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB84" s="2" t="s">
+      <c r="AC84" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC84" s="2" t="s">
+      <c r="AD84" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD84" s="2" t="s">
+      <c r="AE84" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE84" s="2" t="s">
+      <c r="AF84" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF84" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG84" s="2"/>
       <c r="AH84" s="2"/>
@@ -7637,7 +7713,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -7646,36 +7722,36 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
       <c r="Y85" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
       <c r="AD85" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
       <c r="AG85" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH85" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH85" s="2" t="s">
+      <c r="AI85" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI85" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ85" s="2"/>
       <c r="AK85" s="2"/>
@@ -7707,7 +7783,7 @@
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -7717,11 +7793,11 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -7731,35 +7807,35 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W86" s="2"/>
       <c r="X86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y86" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y86" s="2" t="s">
+      <c r="Z86" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z86" s="2" t="s">
+      <c r="AA86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA86" s="2" t="s">
+      <c r="AB86" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB86" s="2" t="s">
+      <c r="AC86" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC86" s="2" t="s">
+      <c r="AD86" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD86" s="2" t="s">
+      <c r="AE86" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE86" s="2" t="s">
+      <c r="AF86" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF86" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG86" s="2"/>
       <c r="AH86" s="2"/>
@@ -7796,7 +7872,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -7805,36 +7881,36 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
       <c r="Y87" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
       <c r="AD87" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
       <c r="AG87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH87" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH87" s="2" t="s">
+      <c r="AI87" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI87" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ87" s="2"/>
       <c r="AK87" s="2"/>
@@ -7866,7 +7942,7 @@
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -7876,11 +7952,11 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -7890,35 +7966,35 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W88" s="2"/>
       <c r="X88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y88" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y88" s="2" t="s">
+      <c r="Z88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z88" s="2" t="s">
+      <c r="AA88" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA88" s="2" t="s">
+      <c r="AB88" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB88" s="2" t="s">
+      <c r="AC88" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC88" s="2" t="s">
+      <c r="AD88" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD88" s="2" t="s">
+      <c r="AE88" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE88" s="2" t="s">
+      <c r="AF88" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF88" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
@@ -7955,7 +8031,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -7964,36 +8040,36 @@
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
       <c r="Y89" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
       <c r="AD89" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
       <c r="AG89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH89" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH89" s="2" t="s">
+      <c r="AI89" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI89" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ89" s="2"/>
       <c r="AK89" s="2"/>
@@ -8032,7 +8108,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -8041,36 +8117,36 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
       <c r="U90" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
       <c r="AD90" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
       <c r="AG90" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH90" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH90" s="2" t="s">
+      <c r="AI90" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI90" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ90" s="2"/>
       <c r="AK90" s="2"/>
@@ -8109,7 +8185,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -8118,36 +8194,36 @@
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
       <c r="AD91" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
       <c r="AG91" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH91" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH91" s="2" t="s">
+      <c r="AI91" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI91" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ91" s="2"/>
       <c r="AK91" s="2"/>
@@ -8186,7 +8262,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -8195,36 +8271,36 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
       <c r="R92" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
       <c r="AD92" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
       <c r="AG92" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH92" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH92" s="2" t="s">
+      <c r="AI92" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI92" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ92" s="2"/>
       <c r="AK92" s="2"/>
@@ -8263,7 +8339,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -8272,36 +8348,36 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
       <c r="R93" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
       <c r="AD93" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
       <c r="AG93" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH93" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH93" s="2" t="s">
+      <c r="AI93" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI93" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ93" s="2"/>
       <c r="AK93" s="2"/>
@@ -8333,7 +8409,7 @@
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -8343,11 +8419,11 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -8357,35 +8433,35 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W94" s="2"/>
       <c r="X94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Y94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Z94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AA94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AB94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AC94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AF94" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG94" s="2"/>
       <c r="AH94" s="2"/>
@@ -8424,7 +8500,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -8482,11 +8558,11 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -8542,11 +8618,11 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -8556,35 +8632,35 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W97" s="2"/>
       <c r="X97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y97" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y97" s="2" t="s">
+      <c r="Z97" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z97" s="2" t="s">
+      <c r="AA97" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA97" s="2" t="s">
+      <c r="AB97" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB97" s="2" t="s">
+      <c r="AC97" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC97" s="2" t="s">
+      <c r="AD97" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD97" s="2" t="s">
+      <c r="AE97" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE97" s="2" t="s">
+      <c r="AF97" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF97" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG97" s="2"/>
       <c r="AH97" s="2"/>
@@ -8622,7 +8698,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -8671,45 +8747,45 @@
         <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="R99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
@@ -8729,7 +8805,7 @@
       <c r="AH99" s="2"/>
       <c r="AI99" s="2"/>
       <c r="AJ99" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AK99" s="2"/>
       <c r="AL99" s="2"/>
@@ -8764,7 +8840,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -8776,35 +8852,35 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
       <c r="V100" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W100" s="2"/>
       <c r="X100" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y100" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y100" s="2" t="s">
+      <c r="Z100" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z100" s="2" t="s">
+      <c r="AA100" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA100" s="2" t="s">
+      <c r="AB100" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB100" s="2" t="s">
+      <c r="AC100" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC100" s="2" t="s">
+      <c r="AD100" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD100" s="2" t="s">
+      <c r="AE100" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE100" s="2" t="s">
+      <c r="AF100" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF100" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG100" s="2"/>
       <c r="AH100" s="2"/>
@@ -8843,7 +8919,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -8902,11 +8978,11 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -8930,7 +9006,7 @@
       <c r="AH102" s="2"/>
       <c r="AI102" s="2"/>
       <c r="AJ102" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AK102" s="2"/>
       <c r="AL102" s="2"/>
@@ -8971,7 +9047,7 @@
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
       <c r="R103" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
@@ -9016,7 +9092,7 @@
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -9028,7 +9104,7 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -9038,7 +9114,7 @@
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="V104" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W104" s="2"/>
       <c r="X104" s="2"/>
@@ -9086,7 +9162,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -9095,36 +9171,36 @@
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
       <c r="R105" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
       <c r="Y105" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
       <c r="AD105" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
       <c r="AG105" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH105" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH105" s="2" t="s">
+      <c r="AI105" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI105" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ105" s="2"/>
       <c r="AK105" s="2"/>
@@ -9163,7 +9239,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -9172,36 +9248,36 @@
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
       <c r="U106" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
       <c r="Y106" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
       <c r="AD106" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
       <c r="AG106" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH106" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH106" s="2" t="s">
+      <c r="AI106" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI106" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ106" s="2"/>
       <c r="AK106" s="2"/>
@@ -9233,7 +9309,7 @@
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -9243,11 +9319,11 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -9257,35 +9333,35 @@
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
       <c r="V107" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W107" s="2"/>
       <c r="X107" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y107" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y107" s="2" t="s">
+      <c r="Z107" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z107" s="2" t="s">
+      <c r="AA107" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA107" s="2" t="s">
+      <c r="AB107" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB107" s="2" t="s">
+      <c r="AC107" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC107" s="2" t="s">
+      <c r="AD107" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD107" s="2" t="s">
+      <c r="AE107" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE107" s="2" t="s">
+      <c r="AF107" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF107" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG107" s="2"/>
       <c r="AH107" s="2"/>
@@ -9315,7 +9391,7 @@
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -9325,11 +9401,11 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -9339,35 +9415,35 @@
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
       <c r="V108" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W108" s="2"/>
       <c r="X108" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y108" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y108" s="2" t="s">
+      <c r="Z108" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z108" s="2" t="s">
+      <c r="AA108" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA108" s="2" t="s">
+      <c r="AB108" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB108" s="2" t="s">
+      <c r="AC108" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC108" s="2" t="s">
+      <c r="AD108" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD108" s="2" t="s">
+      <c r="AE108" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE108" s="2" t="s">
+      <c r="AF108" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF108" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG108" s="2"/>
       <c r="AH108" s="2"/>
@@ -9397,7 +9473,7 @@
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -9407,11 +9483,11 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -9421,35 +9497,35 @@
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
       <c r="V109" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W109" s="2"/>
       <c r="X109" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y109" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y109" s="2" t="s">
+      <c r="Z109" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z109" s="2" t="s">
+      <c r="AA109" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA109" s="2" t="s">
+      <c r="AB109" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB109" s="2" t="s">
+      <c r="AC109" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC109" s="2" t="s">
+      <c r="AD109" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD109" s="2" t="s">
+      <c r="AE109" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE109" s="2" t="s">
+      <c r="AF109" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF109" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG109" s="2"/>
       <c r="AH109" s="2"/>
@@ -9479,7 +9555,7 @@
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -9489,11 +9565,11 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -9503,35 +9579,35 @@
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
       <c r="V110" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W110" s="2"/>
       <c r="X110" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y110" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y110" s="2" t="s">
+      <c r="Z110" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z110" s="2" t="s">
+      <c r="AA110" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA110" s="2" t="s">
+      <c r="AB110" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB110" s="2" t="s">
+      <c r="AC110" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC110" s="2" t="s">
+      <c r="AD110" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD110" s="2" t="s">
+      <c r="AE110" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE110" s="2" t="s">
+      <c r="AF110" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF110" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG110" s="2"/>
       <c r="AH110" s="2"/>
@@ -9561,7 +9637,7 @@
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -9571,11 +9647,11 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -9585,35 +9661,35 @@
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
       <c r="V111" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W111" s="2"/>
       <c r="X111" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y111" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y111" s="2" t="s">
+      <c r="Z111" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z111" s="2" t="s">
+      <c r="AA111" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA111" s="2" t="s">
+      <c r="AB111" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB111" s="2" t="s">
+      <c r="AC111" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC111" s="2" t="s">
+      <c r="AD111" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD111" s="2" t="s">
+      <c r="AE111" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE111" s="2" t="s">
+      <c r="AF111" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF111" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG111" s="2"/>
       <c r="AH111" s="2"/>
@@ -9643,7 +9719,7 @@
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -9653,11 +9729,11 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -9667,35 +9743,35 @@
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
       <c r="V112" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W112" s="2"/>
       <c r="X112" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y112" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y112" s="2" t="s">
+      <c r="Z112" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z112" s="2" t="s">
+      <c r="AA112" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA112" s="2" t="s">
+      <c r="AB112" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB112" s="2" t="s">
+      <c r="AC112" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC112" s="2" t="s">
+      <c r="AD112" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD112" s="2" t="s">
+      <c r="AE112" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE112" s="2" t="s">
+      <c r="AF112" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF112" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG112" s="2"/>
       <c r="AH112" s="2"/>
@@ -9725,7 +9801,7 @@
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -9735,11 +9811,11 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -9749,35 +9825,35 @@
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
       <c r="V113" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W113" s="2"/>
       <c r="X113" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y113" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y113" s="2" t="s">
+      <c r="Z113" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z113" s="2" t="s">
+      <c r="AA113" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA113" s="2" t="s">
+      <c r="AB113" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB113" s="2" t="s">
+      <c r="AC113" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC113" s="2" t="s">
+      <c r="AD113" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD113" s="2" t="s">
+      <c r="AE113" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE113" s="2" t="s">
+      <c r="AF113" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF113" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG113" s="2"/>
       <c r="AH113" s="2"/>
@@ -9807,7 +9883,7 @@
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -9817,11 +9893,11 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -9831,35 +9907,35 @@
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
       <c r="V114" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W114" s="2"/>
       <c r="X114" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y114" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y114" s="2" t="s">
+      <c r="Z114" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z114" s="2" t="s">
+      <c r="AA114" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA114" s="2" t="s">
+      <c r="AB114" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB114" s="2" t="s">
+      <c r="AC114" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC114" s="2" t="s">
+      <c r="AD114" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD114" s="2" t="s">
+      <c r="AE114" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE114" s="2" t="s">
+      <c r="AF114" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF114" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG114" s="2"/>
       <c r="AH114" s="2"/>
@@ -9889,7 +9965,7 @@
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -9899,11 +9975,11 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -9913,35 +9989,35 @@
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W115" s="2"/>
       <c r="X115" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y115" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y115" s="2" t="s">
+      <c r="Z115" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z115" s="2" t="s">
+      <c r="AA115" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA115" s="2" t="s">
+      <c r="AB115" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB115" s="2" t="s">
+      <c r="AC115" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC115" s="2" t="s">
+      <c r="AD115" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD115" s="2" t="s">
+      <c r="AE115" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE115" s="2" t="s">
+      <c r="AF115" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF115" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG115" s="2"/>
       <c r="AH115" s="2"/>
@@ -9971,7 +10047,7 @@
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -9981,11 +10057,11 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -9995,35 +10071,35 @@
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
       <c r="V116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W116" s="2"/>
       <c r="X116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Y116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Z116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AA116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AB116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AC116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AD116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AE116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AF116" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AG116" s="2"/>
       <c r="AH116" s="2"/>
@@ -10060,7 +10136,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -10069,36 +10145,36 @@
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
       <c r="R117" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
       <c r="U117" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
       <c r="Y117" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
       <c r="AD117" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
       <c r="AG117" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH117" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH117" s="2" t="s">
+      <c r="AI117" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="AI117" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="AJ117" s="2"/>
       <c r="AK117" s="2"/>
@@ -10134,7 +10210,7 @@
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -10144,11 +10220,11 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -10158,35 +10234,35 @@
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
       <c r="V118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="W118" s="2"/>
       <c r="X118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Y118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Z118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AA118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AB118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AC118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AE118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AF118" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AG118" s="2"/>
       <c r="AH118" s="2"/>
@@ -10214,79 +10290,79 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I119" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="K119" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P119" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P119" s="2" t="s">
+      <c r="Q119" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q119" s="2" t="s">
+      <c r="R119" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R119" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
       <c r="U119" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
       <c r="AD119" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
       <c r="AG119" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH119" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH119" s="2" t="s">
+      <c r="AI119" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI119" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ119" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK119" s="2">
         <v>124</v>
@@ -10323,7 +10399,7 @@
       <c r="AW119" s="2"/>
       <c r="AX119" s="2"/>
       <c r="AY119" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AZ119" s="2"/>
       <c r="BA119" s="2"/>
@@ -10333,41 +10409,43 @@
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D120" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="E120" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
@@ -10386,7 +10464,9 @@
       <c r="AG120" s="2"/>
       <c r="AH120" s="2"/>
       <c r="AI120" s="2"/>
-      <c r="AJ120" s="2"/>
+      <c r="AJ120" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="AK120" s="2"/>
       <c r="AL120" s="2"/>
       <c r="AM120" s="2"/>
@@ -10410,81 +10490,81 @@
         <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I121" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="J121" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="K121" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K121" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="L121" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P121" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P121" s="2" t="s">
+      <c r="Q121" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q121" s="2" t="s">
+      <c r="R121" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R121" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
       <c r="U121" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
       <c r="AD121" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
       <c r="AG121" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH121" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH121" s="2" t="s">
+      <c r="AI121" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI121" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ121" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK121" s="2">
         <v>31</v>
@@ -10521,7 +10601,7 @@
       <c r="AW121" s="2"/>
       <c r="AX121" s="2"/>
       <c r="AY121" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AZ121" s="2"/>
       <c r="BA121" s="2"/>
@@ -10541,18 +10621,18 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P122" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P122" s="2" t="s">
+      <c r="Q122" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="Q122" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
@@ -10612,11 +10692,11 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -10665,7 +10745,7 @@
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -10675,11 +10755,11 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -10689,35 +10769,35 @@
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
       <c r="V124" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W124" s="2"/>
       <c r="X124" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y124" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y124" s="2" t="s">
+      <c r="Z124" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z124" s="2" t="s">
+      <c r="AA124" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA124" s="2" t="s">
+      <c r="AB124" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB124" s="2" t="s">
+      <c r="AC124" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC124" s="2" t="s">
+      <c r="AD124" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD124" s="2" t="s">
+      <c r="AE124" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE124" s="2" t="s">
+      <c r="AF124" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF124" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG124" s="2"/>
       <c r="AH124" s="2"/>
@@ -10747,7 +10827,9 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="D125" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -10756,7 +10838,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -10767,17 +10849,37 @@
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
-      <c r="V125" s="2"/>
+      <c r="V125" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="W125" s="2"/>
-      <c r="X125" s="2"/>
-      <c r="Y125" s="2"/>
-      <c r="Z125" s="2"/>
-      <c r="AA125" s="2"/>
-      <c r="AB125" s="2"/>
-      <c r="AC125" s="2"/>
-      <c r="AD125" s="2"/>
-      <c r="AE125" s="2"/>
-      <c r="AF125" s="2"/>
+      <c r="X125" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y125" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z125" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA125" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC125" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD125" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE125" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF125" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="AG125" s="2"/>
       <c r="AH125" s="2"/>
       <c r="AI125" s="2"/>
@@ -10815,7 +10917,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -10863,41 +10965,43 @@
         <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I127" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="J127" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
@@ -10916,7 +11020,9 @@
       <c r="AG127" s="2"/>
       <c r="AH127" s="2"/>
       <c r="AI127" s="2"/>
-      <c r="AJ127" s="2"/>
+      <c r="AJ127" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="AK127" s="2"/>
       <c r="AL127" s="2"/>
       <c r="AM127" s="2"/>
@@ -10940,77 +11046,77 @@
         <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J128" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K128" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P128" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P128" s="2" t="s">
+      <c r="Q128" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q128" s="2" t="s">
+      <c r="R128" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R128" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
       <c r="U128" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
       <c r="Y128" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
       <c r="AD128" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
       <c r="AG128" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH128" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH128" s="2" t="s">
+      <c r="AI128" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI128" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ128" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AK128" s="2">
         <v>131</v>
@@ -11047,7 +11153,7 @@
       <c r="AW128" s="2"/>
       <c r="AX128" s="2"/>
       <c r="AY128" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AZ128" s="2"/>
       <c r="BA128" s="2"/>
@@ -11057,41 +11163,41 @@
         <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R129" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
@@ -11111,7 +11217,7 @@
       <c r="AH129" s="2"/>
       <c r="AI129" s="2"/>
       <c r="AJ129" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AK129" s="2"/>
       <c r="AL129" s="2"/>
@@ -11146,7 +11252,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -11200,7 +11306,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
@@ -11255,41 +11361,43 @@
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I132" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="J132" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
       <c r="O132" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q132" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R132" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
@@ -11332,45 +11440,45 @@
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
@@ -11390,7 +11498,7 @@
       <c r="AH133" s="2"/>
       <c r="AI133" s="2"/>
       <c r="AJ133" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AK133" s="2"/>
       <c r="AL133" s="2"/>
@@ -11415,45 +11523,45 @@
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
@@ -11473,7 +11581,7 @@
       <c r="AH134" s="2"/>
       <c r="AI134" s="2"/>
       <c r="AJ134" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AK134" s="2"/>
       <c r="AL134" s="2"/>
@@ -11498,45 +11606,45 @@
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
@@ -11556,7 +11664,7 @@
       <c r="AH135" s="2"/>
       <c r="AI135" s="2"/>
       <c r="AJ135" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AK135" s="2"/>
       <c r="AL135" s="2"/>
@@ -11581,79 +11689,79 @@
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I136" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="J136" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="K136" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K136" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P136" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P136" s="2" t="s">
+      <c r="Q136" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q136" s="2" t="s">
+      <c r="R136" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R136" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
       <c r="U136" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
       <c r="Y136" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
       <c r="AB136" s="2"/>
       <c r="AC136" s="2"/>
       <c r="AD136" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE136" s="2"/>
       <c r="AF136" s="2"/>
       <c r="AG136" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH136" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH136" s="2" t="s">
+      <c r="AI136" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI136" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ136" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK136" s="2">
         <v>136</v>
@@ -11690,7 +11798,7 @@
       <c r="AW136" s="2"/>
       <c r="AX136" s="2"/>
       <c r="AY136" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AZ136" s="2"/>
       <c r="BA136" s="2"/>
@@ -11700,79 +11808,79 @@
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I137" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I137" s="2" t="s">
+      <c r="J137" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J137" s="2" t="s">
+      <c r="K137" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P137" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P137" s="2" t="s">
+      <c r="Q137" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q137" s="2" t="s">
+      <c r="R137" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R137" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
       <c r="U137" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
       <c r="Y137" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
       <c r="AD137" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE137" s="2"/>
       <c r="AF137" s="2"/>
       <c r="AG137" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH137" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH137" s="2" t="s">
+      <c r="AI137" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI137" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ137" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK137" s="2">
         <v>137</v>
@@ -11809,7 +11917,7 @@
       <c r="AW137" s="2"/>
       <c r="AX137" s="2"/>
       <c r="AY137" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AZ137" s="2"/>
       <c r="BA137" s="2"/>
@@ -11819,79 +11927,79 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I138" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I138" s="2" t="s">
+      <c r="J138" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="K138" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P138" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P138" s="2" t="s">
+      <c r="Q138" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q138" s="2" t="s">
+      <c r="R138" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R138" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
       <c r="U138" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
       <c r="Y138" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
       <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
       <c r="AD138" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE138" s="2"/>
       <c r="AF138" s="2"/>
       <c r="AG138" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH138" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH138" s="2" t="s">
+      <c r="AI138" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI138" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ138" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK138" s="2">
         <v>138</v>
@@ -11928,7 +12036,7 @@
       <c r="AW138" s="2"/>
       <c r="AX138" s="2"/>
       <c r="AY138" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AZ138" s="2"/>
       <c r="BA138" s="2"/>
@@ -11938,45 +12046,45 @@
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
@@ -11996,7 +12104,7 @@
       <c r="AH139" s="2"/>
       <c r="AI139" s="2"/>
       <c r="AJ139" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AK139" s="2"/>
       <c r="AL139" s="2"/>
@@ -12021,45 +12129,45 @@
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="R140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
@@ -12079,7 +12187,7 @@
       <c r="AH140" s="2"/>
       <c r="AI140" s="2"/>
       <c r="AJ140" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AK140" s="2"/>
       <c r="AL140" s="2"/>
@@ -12104,45 +12212,45 @@
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
@@ -12162,7 +12270,7 @@
       <c r="AH141" s="2"/>
       <c r="AI141" s="2"/>
       <c r="AJ141" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AK141" s="2"/>
       <c r="AL141" s="2"/>
@@ -12189,7 +12297,7 @@
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -12199,11 +12307,11 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -12213,35 +12321,35 @@
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
       <c r="V142" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W142" s="2"/>
       <c r="X142" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y142" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y142" s="2" t="s">
+      <c r="Z142" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z142" s="2" t="s">
+      <c r="AA142" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA142" s="2" t="s">
+      <c r="AB142" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB142" s="2" t="s">
+      <c r="AC142" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC142" s="2" t="s">
+      <c r="AD142" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD142" s="2" t="s">
+      <c r="AE142" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE142" s="2" t="s">
+      <c r="AF142" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF142" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG142" s="2"/>
       <c r="AH142" s="2"/>
@@ -12286,7 +12394,7 @@
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
       <c r="S143" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
@@ -12332,7 +12440,7 @@
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -12344,7 +12452,7 @@
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
@@ -12354,7 +12462,7 @@
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
       <c r="V144" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
@@ -12394,8 +12502,8 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="2" t="s">
-        <v>182</v>
+      <c r="D145" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -12415,35 +12523,35 @@
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
       <c r="V145" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W145" s="2"/>
       <c r="X145" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y145" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Y145" s="2" t="s">
+      <c r="Z145" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Z145" s="2" t="s">
+      <c r="AA145" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA145" s="2" t="s">
+      <c r="AB145" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AB145" s="2" t="s">
+      <c r="AC145" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC145" s="2" t="s">
+      <c r="AD145" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AD145" s="2" t="s">
+      <c r="AE145" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AE145" s="2" t="s">
+      <c r="AF145" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AF145" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AG145" s="2"/>
       <c r="AH145" s="2"/>
@@ -12472,82 +12580,82 @@
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I146" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I146" s="2" t="s">
+      <c r="J146" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="K146" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K146" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P146" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P146" s="2" t="s">
+      <c r="Q146" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q146" s="2" t="s">
+      <c r="R146" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R146" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
       <c r="U146" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
       <c r="X146" s="2"/>
       <c r="Y146" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
       <c r="AD146" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE146" s="2"/>
       <c r="AF146" s="2"/>
       <c r="AG146" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH146" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH146" s="2" t="s">
+      <c r="AI146" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI146" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ146" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK146" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL146" s="2">
         <v>2</v>
@@ -12581,7 +12689,7 @@
       <c r="AW146" s="2"/>
       <c r="AX146" s="2"/>
       <c r="AY146" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AZ146" s="2"/>
       <c r="BA146" s="2"/>
@@ -12591,45 +12699,45 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G147" s="2"/>
       <c r="H147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="R147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
@@ -12649,7 +12757,7 @@
       <c r="AH147" s="2"/>
       <c r="AI147" s="2"/>
       <c r="AJ147" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AK147" s="2"/>
       <c r="AL147" s="2"/>
@@ -12691,8 +12799,8 @@
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
-      <c r="T148" s="2" t="s">
-        <v>184</v>
+      <c r="T148" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
@@ -12735,7 +12843,7 @@
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -12747,29 +12855,47 @@
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
       <c r="S149" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T149" s="2"/>
       <c r="V149" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W149" s="2"/>
-      <c r="X149" s="2"/>
-      <c r="Y149" s="2"/>
-      <c r="Z149" s="2"/>
-      <c r="AA149" s="2"/>
-      <c r="AB149" s="2"/>
-      <c r="AC149" s="2"/>
-      <c r="AD149" s="2"/>
-      <c r="AE149" s="2"/>
-      <c r="AF149" s="2"/>
+      <c r="X149" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y149" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z149" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA149" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB149" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC149" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD149" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE149" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF149" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AG149" s="2"/>
       <c r="AH149" s="2"/>
       <c r="AI149" s="2"/>
@@ -12783,7 +12909,7 @@
       <c r="AQ149" s="2"/>
       <c r="AR149" s="2"/>
       <c r="AS149" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AT149" s="2"/>
       <c r="AU149" s="2"/>
@@ -12801,7 +12927,7 @@
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -12813,7 +12939,7 @@
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -12823,18 +12949,36 @@
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
       <c r="V150" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="W150" s="2"/>
-      <c r="X150" s="2"/>
-      <c r="Y150" s="2"/>
-      <c r="Z150" s="2"/>
-      <c r="AA150" s="2"/>
-      <c r="AB150" s="2"/>
-      <c r="AC150" s="2"/>
-      <c r="AD150" s="2"/>
-      <c r="AE150" s="2"/>
-      <c r="AF150" s="2"/>
+      <c r="X150" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y150" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z150" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA150" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB150" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC150" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD150" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE150" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF150" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="AG150" s="2"/>
       <c r="AH150" s="2"/>
       <c r="AI150" s="2"/>
@@ -12863,7 +13007,7 @@
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -12920,83 +13064,83 @@
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="D152" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E152" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I152" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="J152" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="K152" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N152" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O152" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P152" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P152" s="2" t="s">
+      <c r="Q152" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q152" s="2" t="s">
+      <c r="R152" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="R152" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
       <c r="U152" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
       <c r="X152" s="2"/>
       <c r="Y152" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
       <c r="AD152" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE152" s="2"/>
       <c r="AF152" s="2"/>
       <c r="AG152" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH152" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH152" s="2" t="s">
+      <c r="AI152" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI152" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ152" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK152" s="2">
         <v>150</v>
@@ -13043,47 +13187,47 @@
         <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
@@ -13103,7 +13247,7 @@
       <c r="AH153" s="2"/>
       <c r="AI153" s="2"/>
       <c r="AJ153" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AK153" s="2"/>
       <c r="AL153" s="2"/>
@@ -13130,7 +13274,7 @@
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -13142,7 +13286,7 @@
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -13152,7 +13296,7 @@
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
       <c r="V154" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
@@ -13255,7 +13399,7 @@
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -13314,7 +13458,7 @@
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -13367,9 +13511,14 @@
       <c r="BA157" s="2"/>
     </row>
     <row r="158" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>155</v>
+      </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="D158" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -13389,15 +13538,33 @@
       <c r="U158" s="2"/>
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
-      <c r="X158" s="2"/>
-      <c r="Y158" s="2"/>
-      <c r="Z158" s="2"/>
-      <c r="AA158" s="2"/>
-      <c r="AB158" s="2"/>
-      <c r="AC158" s="2"/>
-      <c r="AD158" s="2"/>
-      <c r="AE158" s="2"/>
-      <c r="AF158" s="2"/>
+      <c r="X158" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y158" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA158" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB158" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC158" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD158" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE158" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF158" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="AG158" s="2"/>
       <c r="AH158" s="2"/>
       <c r="AI158" s="2"/>
@@ -14302,7 +14469,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14316,7 +14483,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analyzer.xlsx
+++ b/analyzer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dload\SLRAnalyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dload\-SLR-1-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4164D7D8-5759-4C98-BE26-F5A5C6D55DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744030D2-9516-46BB-8829-A80011774661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="1260" windowWidth="19200" windowHeight="13130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="1340" windowWidth="24870" windowHeight="13130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="224">
   <si>
     <t>状态</t>
   </si>
@@ -735,6 +735,14 @@
   </si>
   <si>
     <t>r37</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s53</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s54</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1129,9 +1137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA82" sqref="AA82"/>
+      <selection pane="bottomLeft" activeCell="AB79" sqref="AB79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7258,11 +7266,11 @@
       <c r="Y79" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="Z79" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA79" s="2" t="s">
-        <v>129</v>
+      <c r="Z79" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA79" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="AB79" s="2" t="s">
         <v>129</v>

--- a/analyzer.xlsx
+++ b/analyzer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dload\-SLR-1-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744030D2-9516-46BB-8829-A80011774661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4C9142-5412-4370-AA68-86E1B0F01327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="1340" windowWidth="24870" windowHeight="13130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="2530" windowWidth="24870" windowHeight="13130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="226">
   <si>
     <t>状态</t>
   </si>
@@ -743,6 +743,14 @@
   </si>
   <si>
     <t>s54</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>r24</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1138,8 +1146,8 @@
   <dimension ref="A1:BA175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB79" sqref="AB79"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA104" sqref="AA104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6734,10 +6742,18 @@
         <v>70</v>
       </c>
       <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
+      <c r="X72" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y72" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z72" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA72" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
@@ -9117,7 +9133,9 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
+      <c r="R104" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
@@ -9125,18 +9143,32 @@
         <v>148</v>
       </c>
       <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
-      <c r="AA104" s="2"/>
+      <c r="X104" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y104" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z104" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA104" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
-      <c r="AG104" s="2"/>
-      <c r="AH104" s="2"/>
-      <c r="AI104" s="2"/>
+      <c r="AG104" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH104" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI104" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="AJ104" s="2"/>
       <c r="AK104" s="2"/>
       <c r="AL104" s="2"/>
